--- a/Employee_Reports35/Conrado DE Guzman Vineza Q0428.xlsx
+++ b/Employee_Reports35/Conrado DE Guzman Vineza Q0428.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1317,11 +1317,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="H19" s="5" t="n">
-        <v>-375</v>
+        <v>-376</v>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1501,11 +1501,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1550,11 +1550,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1587,11 +1587,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">

--- a/Employee_Reports35/Conrado DE Guzman Vineza Q0428.xlsx
+++ b/Employee_Reports35/Conrado DE Guzman Vineza Q0428.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1317,11 +1317,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1366,11 +1366,11 @@
         </is>
       </c>
       <c r="H19" s="5" t="n">
-        <v>-376</v>
+        <v>-377</v>
       </c>
       <c r="I19" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="5" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1501,11 +1501,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1550,11 +1550,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1587,11 +1587,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
